--- a/data_2.xlsx
+++ b/data_2.xlsx
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03</v>
+        <v>0.053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.295</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09</v>
+        <v>0.07066666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.1776666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.19</v>
+        <v>0.1776666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -514,13 +514,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.24</v>
+        <v>0.203</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.2553333333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.32</v>
+        <v>0.3316666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -531,13 +531,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.24</v>
+        <v>0.1963333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32</v>
+        <v>0.297</v>
       </c>
       <c r="E6" t="n">
-        <v>0.39</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="7">
@@ -548,13 +548,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06</v>
+        <v>0.05233333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.2276666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>0.2306666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -565,13 +565,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04</v>
+        <v>0.03633333333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="E8" t="n">
-        <v>0.22</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="9">
@@ -582,13 +582,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2</v>
+        <v>0.041</v>
       </c>
       <c r="D9" t="n">
-        <v>0.39</v>
+        <v>0.253</v>
       </c>
       <c r="E9" t="n">
-        <v>0.44</v>
+        <v>0.2533333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -599,13 +599,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.35</v>
+        <v>0.2246666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.35</v>
+        <v>0.2246666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05</v>
+        <v>0.04666666666666667</v>
       </c>
     </row>
   </sheetData>
